--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Sistema Financeiro\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF406C9-6353-4A5E-87BD-2AC0985E31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372E019-40EA-4DDD-AD19-2A4DA921FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10800" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>LUCRO/PREJUIZO</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">AQUISIÇÃO </t>
+  </si>
+  <si>
+    <t>ABRIL.2025</t>
   </si>
 </sst>
 </file>
@@ -276,13 +279,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
@@ -311,8 +315,15 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Moeda" xfId="4" builtinId="4"/>
     <cellStyle name="Moeda 2" xfId="3" xr:uid="{B2A29521-15D9-4444-BE9D-90812CE0C00E}"/>
     <cellStyle name="Moeda 3" xfId="2" xr:uid="{3F3CC644-F10F-41DF-9FBE-EC889BC8DF76}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D010DE-4B1E-49CF-9851-10BC70A01259}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,10 +674,11 @@
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -712,16 +724,18 @@
       <c r="I1" s="5">
         <v>-49666.869999999995</v>
       </c>
-      <c r="J1" s="4">
-        <v>3276.0699999999779</v>
+      <c r="J1" s="5">
+        <v>-18886.77999999997</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="5">
-        <v>-25517.579999999987</v>
-      </c>
-      <c r="M1" s="5"/>
+        <v>-26461.079999999987</v>
+      </c>
+      <c r="M1" s="5">
+        <v>-7060.6699999999837</v>
+      </c>
       <c r="N1" s="5">
         <v>-39263.210000000021</v>
       </c>
@@ -792,7 +806,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>26</v>
@@ -869,7 +883,7 @@
         <v>174845.75</v>
       </c>
       <c r="J3" s="7">
-        <v>205000</v>
+        <v>209146.96</v>
       </c>
       <c r="K3" s="12">
         <v>1.3172724507091171E-2</v>
@@ -877,8 +891,8 @@
       <c r="L3" s="7">
         <v>171287.02000000002</v>
       </c>
-      <c r="M3" s="12">
-        <v>-2.0353540191854758E-2</v>
+      <c r="M3" s="18">
+        <v>215000</v>
       </c>
       <c r="N3" s="7">
         <v>178770.6</v>
@@ -955,7 +969,7 @@
         <v>171406.54</v>
       </c>
       <c r="J4" s="2">
-        <v>200000</v>
+        <v>203808</v>
       </c>
       <c r="K4" s="11">
         <v>1.9087905939278116E-2</v>
@@ -963,8 +977,8 @@
       <c r="L4" s="2">
         <v>166536.42000000001</v>
       </c>
-      <c r="M4" s="11">
-        <v>-2.8412684836879643E-2</v>
+      <c r="M4" s="19">
+        <v>210000</v>
       </c>
       <c r="N4" s="2">
         <v>174034.43</v>
@@ -1041,7 +1055,7 @@
         <v>3439.21</v>
       </c>
       <c r="J5" s="2">
-        <v>5000</v>
+        <v>5338.96</v>
       </c>
       <c r="K5" s="11">
         <v>-0.21415889975254032</v>
@@ -1049,8 +1063,8 @@
       <c r="L5" s="2">
         <v>4750.6000000000004</v>
       </c>
-      <c r="M5" s="11">
-        <v>0.38130559052805735</v>
+      <c r="M5" s="19">
+        <v>5000</v>
       </c>
       <c r="N5" s="2">
         <v>4736.17</v>
@@ -1133,16 +1147,16 @@
         <v>-224512.62</v>
       </c>
       <c r="J6" s="9">
-        <v>-201723.93000000002</v>
+        <v>-228033.73999999996</v>
       </c>
       <c r="K6" s="12">
         <v>-3.771581920840994E-2</v>
       </c>
       <c r="L6" s="9">
-        <v>-196804.6</v>
-      </c>
-      <c r="M6" s="12">
-        <v>-0.12341408692304245</v>
+        <v>-197748.1</v>
+      </c>
+      <c r="M6" s="18">
+        <v>-222060.66999999998</v>
       </c>
       <c r="N6" s="9">
         <v>-218033.81000000003</v>
@@ -1219,7 +1233,7 @@
         <v>-57890.310000000019</v>
       </c>
       <c r="J7" s="2">
-        <v>-68914.670000000013</v>
+        <v>-75097.489999999962</v>
       </c>
       <c r="K7" s="11">
         <v>-0.29249991597793989</v>
@@ -1227,8 +1241,8 @@
       <c r="L7" s="2">
         <v>-60877.109999999986</v>
       </c>
-      <c r="M7" s="11">
-        <v>5.1594126892738457E-2</v>
+      <c r="M7" s="19">
+        <v>-68480.569999999978</v>
       </c>
       <c r="N7" s="2">
         <v>-63145.330000000024</v>
@@ -1305,16 +1319,16 @@
         <v>-90655.469999999987</v>
       </c>
       <c r="J8" s="2">
-        <v>-72695.97</v>
+        <v>-79155.179999999993</v>
       </c>
       <c r="K8" s="11">
         <v>0.10218612387022086</v>
       </c>
       <c r="L8" s="2">
-        <v>-58617.909999999996</v>
-      </c>
-      <c r="M8" s="11">
-        <v>-0.35339908336474346</v>
+        <v>-59561.409999999996</v>
+      </c>
+      <c r="M8" s="19">
+        <v>-81599.969999999987</v>
       </c>
       <c r="N8" s="2">
         <v>-75578.41</v>
@@ -1391,7 +1405,7 @@
         <v>-9553.3500000000022</v>
       </c>
       <c r="J9" s="2">
-        <v>-4220.79</v>
+        <v>-7940.99</v>
       </c>
       <c r="K9" s="11">
         <v>1.6526546399624604</v>
@@ -1399,8 +1413,8 @@
       <c r="L9" s="2">
         <v>-13041.52</v>
       </c>
-      <c r="M9" s="11">
-        <v>0.36512532253083974</v>
+      <c r="M9" s="19">
+        <v>-5305.329999999999</v>
       </c>
       <c r="N9" s="2">
         <v>-11526.390000000001</v>
@@ -1477,7 +1491,7 @@
         <v>-46020.909999999989</v>
       </c>
       <c r="J10" s="2">
-        <v>-36463.619999999988</v>
+        <v>-48535.1</v>
       </c>
       <c r="K10" s="11">
         <v>-7.7288673822007992E-3</v>
@@ -1485,8 +1499,8 @@
       <c r="L10" s="2">
         <v>-45555.48000000001</v>
       </c>
-      <c r="M10" s="11">
-        <v>-1.0113446257363878E-2</v>
+      <c r="M10" s="19">
+        <v>-47489.55000000001</v>
       </c>
       <c r="N10" s="2">
         <v>-46496.170000000006</v>
@@ -1563,7 +1577,7 @@
         <v>-12712.88</v>
       </c>
       <c r="J11" s="2">
-        <v>-13445.82</v>
+        <v>-8650.8200000000052</v>
       </c>
       <c r="K11" s="11">
         <v>2.4843809201351208E-2</v>
@@ -1571,8 +1585,8 @@
       <c r="L11" s="2">
         <v>-12363.98</v>
       </c>
-      <c r="M11" s="11">
-        <v>-2.7444607358836026E-2</v>
+      <c r="M11" s="19">
+        <v>-13435.83</v>
       </c>
       <c r="N11" s="2">
         <v>-13967.240000000002</v>
@@ -1649,7 +1663,7 @@
         <v>-155.75</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>-752.63</v>
       </c>
       <c r="K12" s="11">
         <v>-0.61584944751381221</v>
@@ -1657,8 +1671,8 @@
       <c r="L12" s="2">
         <v>-1008.8199999999999</v>
       </c>
-      <c r="M12" s="11">
-        <v>5.4771749598715891</v>
+      <c r="M12" s="19">
+        <v>-713.03</v>
       </c>
       <c r="N12" s="2">
         <v>-910.33999999999992</v>
@@ -1735,7 +1749,7 @@
         <v>-448.75</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>-171.58</v>
       </c>
       <c r="K13" s="11">
         <v>-9.0678824721377893E-2</v>
@@ -1743,8 +1757,8 @@
       <c r="L13" s="2">
         <v>-26.78</v>
       </c>
-      <c r="M13" s="11">
-        <v>-0.94032311977715877</v>
+      <c r="M13" s="19">
+        <v>-63.72</v>
       </c>
       <c r="N13" s="2">
         <v>-165.26999999999998</v>
@@ -1829,8 +1843,8 @@
       <c r="L14" s="2">
         <v>-340</v>
       </c>
-      <c r="M14" s="11">
-        <v>-0.64097148891235478</v>
+      <c r="M14" s="19">
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>-438.9</v>
@@ -1895,7 +1909,7 @@
         <v>-6128.2</v>
       </c>
       <c r="J15" s="2">
-        <v>-5983.0599999999995</v>
+        <v>-5529.9499999999989</v>
       </c>
       <c r="K15" s="11">
         <v>0.17210078054621025</v>
@@ -1903,8 +1917,8 @@
       <c r="L15" s="2">
         <v>-4973</v>
       </c>
-      <c r="M15" s="11">
-        <v>-0.18850559707581338</v>
+      <c r="M15" s="19">
+        <v>-4972.67</v>
       </c>
       <c r="N15" s="2">
         <v>-5805.76</v>
@@ -1977,13 +1991,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="19">
+        <v>0</v>
+      </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372E019-40EA-4DDD-AD19-2A4DA921FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C5F09-EAEB-44DE-A846-5332290744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
+    <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10800" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D010DE-4B1E-49CF-9851-10BC70A01259}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C5F09-EAEB-44DE-A846-5332290744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F2E63-92C5-4688-84F0-172762BF936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="0" windowWidth="10455" windowHeight="10800" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{E3D0A499-EC41-40B2-9A57-EDC3F08FAF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D010DE-4B1E-49CF-9851-10BC70A01259}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,7 @@
         <v>171287.02000000002</v>
       </c>
       <c r="M3" s="18">
-        <v>215000</v>
+        <v>198272.6</v>
       </c>
       <c r="N3" s="7">
         <v>178770.6</v>
@@ -978,7 +978,7 @@
         <v>166536.42000000001</v>
       </c>
       <c r="M4" s="19">
-        <v>210000</v>
+        <v>190616.71</v>
       </c>
       <c r="N4" s="2">
         <v>174034.43</v>
@@ -1064,7 +1064,7 @@
         <v>4750.6000000000004</v>
       </c>
       <c r="M5" s="19">
-        <v>5000</v>
+        <v>7655.89</v>
       </c>
       <c r="N5" s="2">
         <v>4736.17</v>
@@ -1156,7 +1156,7 @@
         <v>-197748.1</v>
       </c>
       <c r="M6" s="18">
-        <v>-222060.66999999998</v>
+        <v>-227870.70999999996</v>
       </c>
       <c r="N6" s="9">
         <v>-218033.81000000003</v>
@@ -1242,7 +1242,7 @@
         <v>-60877.109999999986</v>
       </c>
       <c r="M7" s="19">
-        <v>-68480.569999999978</v>
+        <v>-72833.64999999998</v>
       </c>
       <c r="N7" s="2">
         <v>-63145.330000000024</v>
@@ -1328,7 +1328,7 @@
         <v>-59561.409999999996</v>
       </c>
       <c r="M8" s="19">
-        <v>-81599.969999999987</v>
+        <v>-79864.67</v>
       </c>
       <c r="N8" s="2">
         <v>-75578.41</v>
@@ -1414,7 +1414,7 @@
         <v>-13041.52</v>
       </c>
       <c r="M9" s="19">
-        <v>-5305.329999999999</v>
+        <v>-5473.8099999999995</v>
       </c>
       <c r="N9" s="2">
         <v>-11526.390000000001</v>
@@ -1500,7 +1500,7 @@
         <v>-45555.48000000001</v>
       </c>
       <c r="M10" s="19">
-        <v>-47489.55000000001</v>
+        <v>-47743.820000000014</v>
       </c>
       <c r="N10" s="2">
         <v>-46496.170000000006</v>
@@ -1586,7 +1586,7 @@
         <v>-12363.98</v>
       </c>
       <c r="M11" s="19">
-        <v>-13435.83</v>
+        <v>-11087.679999999998</v>
       </c>
       <c r="N11" s="2">
         <v>-13967.240000000002</v>
@@ -1672,7 +1672,7 @@
         <v>-1008.8199999999999</v>
       </c>
       <c r="M12" s="19">
-        <v>-713.03</v>
+        <v>-181.59</v>
       </c>
       <c r="N12" s="2">
         <v>-910.33999999999992</v>
@@ -1758,7 +1758,7 @@
         <v>-26.78</v>
       </c>
       <c r="M13" s="19">
-        <v>-63.72</v>
+        <v>-896.71</v>
       </c>
       <c r="N13" s="2">
         <v>-165.26999999999998</v>
@@ -1918,7 +1918,7 @@
         <v>-4973</v>
       </c>
       <c r="M15" s="19">
-        <v>-4972.67</v>
+        <v>-5938.78</v>
       </c>
       <c r="N15" s="2">
         <v>-5805.76</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="19">
-        <v>0</v>
+        <v>-3850</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
